--- a/employment_rates/RI/RI_data.xlsx
+++ b/employment_rates/RI/RI_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/employment_rates/RI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139EBCA-0B87-5E4D-817A-4E7C0C177B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C656722-FE1F-8141-A1F0-2C8AE21AFDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <t>GREATER RHODE ISLAND WIA</t>
   </si>
   <si>
-    <t>METRIC</t>
+    <t>Metric</t>
   </si>
   <si>
     <t>AREA</t>
@@ -664,7 +664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O310"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V304" sqref="V304"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
@@ -698,7 +700,9 @@
       <c r="G1" s="5">
         <v>43952</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5">
+        <v>43983</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -727,9 +731,11 @@
         <v>523359</v>
       </c>
       <c r="G2" s="1">
-        <v>518556</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>518867</v>
+      </c>
+      <c r="H2" s="1">
+        <v>552974</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -758,9 +764,11 @@
         <v>429849</v>
       </c>
       <c r="G3" s="1">
-        <v>435646</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>435059</v>
+      </c>
+      <c r="H3" s="1">
+        <v>485994</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -789,9 +797,11 @@
         <v>93510</v>
       </c>
       <c r="G4" s="1">
-        <v>82910</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>83808</v>
+      </c>
+      <c r="H4" s="1">
+        <v>66980</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -820,9 +830,11 @@
         <v>17.899999999999999</v>
       </c>
       <c r="G5" s="7">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>16.2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>12.1</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -851,7 +863,10 @@
         <v>18.100000000000001</v>
       </c>
       <c r="G6" s="7">
-        <v>16.3</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12.4</v>
       </c>
       <c r="O6" s="9"/>
     </row>
@@ -879,7 +894,9 @@
       <c r="G9" s="5">
         <v>43952</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>43983</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -905,7 +922,10 @@
         <v>649848</v>
       </c>
       <c r="G10" s="1">
-        <v>649532</v>
+        <v>650024</v>
+      </c>
+      <c r="H10" s="1">
+        <v>689375</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="12.5" customHeight="1">
@@ -925,7 +945,10 @@
         <v>531400</v>
       </c>
       <c r="G11" s="1">
-        <v>542142</v>
+        <v>541338</v>
+      </c>
+      <c r="H11" s="1">
+        <v>596217</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="12.5" customHeight="1">
@@ -945,7 +968,10 @@
         <v>118448</v>
       </c>
       <c r="G12" s="1">
-        <v>107390</v>
+        <v>108686</v>
+      </c>
+      <c r="H12" s="1">
+        <v>93158</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="12.5" customHeight="1">
@@ -965,7 +991,10 @@
         <v>18.2</v>
       </c>
       <c r="G13" s="7">
-        <v>16.5</v>
+        <v>16.7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="12.5" customHeight="1">
@@ -992,7 +1021,9 @@
       <c r="G16" s="5">
         <v>43952</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>43983</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1018,9 +1049,11 @@
         <v>508578</v>
       </c>
       <c r="G17" s="10">
-        <v>504004</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>504187</v>
+      </c>
+      <c r="H17" s="10">
+        <v>536491</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1045,9 +1078,11 @@
         <v>418443</v>
       </c>
       <c r="G18" s="10">
-        <v>423870</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>423193</v>
+      </c>
+      <c r="H18" s="10">
+        <v>471591</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -1072,9 +1107,11 @@
         <v>90135</v>
       </c>
       <c r="G19" s="10">
-        <v>80134</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>80994</v>
+      </c>
+      <c r="H19" s="10">
+        <v>64900</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -1099,9 +1136,11 @@
         <v>17.7</v>
       </c>
       <c r="G20" s="11">
-        <v>15.9</v>
-      </c>
-      <c r="H20" s="11"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H20" s="11">
+        <v>12.1</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -1159,7 +1198,9 @@
       <c r="G23" s="5">
         <v>43952</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>43983</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1185,9 +1226,11 @@
         <v>141270</v>
       </c>
       <c r="G24" s="10">
-        <v>145528</v>
-      </c>
-      <c r="H24" s="10"/>
+        <v>145837</v>
+      </c>
+      <c r="H24" s="10">
+        <v>152884</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -1212,9 +1255,11 @@
         <v>112957</v>
       </c>
       <c r="G25" s="10">
-        <v>118272</v>
-      </c>
-      <c r="H25" s="10"/>
+        <v>118145</v>
+      </c>
+      <c r="H25" s="10">
+        <v>124626</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -1239,9 +1284,11 @@
         <v>28313</v>
       </c>
       <c r="G26" s="10">
-        <v>27256</v>
-      </c>
-      <c r="H26" s="10"/>
+        <v>27692</v>
+      </c>
+      <c r="H26" s="10">
+        <v>28258</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1266,9 +1313,11 @@
         <v>20</v>
       </c>
       <c r="G27" s="11">
-        <v>18.7</v>
-      </c>
-      <c r="H27" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="H27" s="11">
+        <v>18.5</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -1326,7 +1375,9 @@
       <c r="G30" s="5">
         <v>43952</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>43983</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1352,9 +1403,11 @@
         <v>14257</v>
       </c>
       <c r="G31" s="10">
-        <v>13897</v>
-      </c>
-      <c r="H31" s="10"/>
+        <v>14025</v>
+      </c>
+      <c r="H31" s="10">
+        <v>15365</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -1379,9 +1432,11 @@
         <v>11051</v>
       </c>
       <c r="G32" s="10">
-        <v>11249</v>
-      </c>
-      <c r="H32" s="10"/>
+        <v>11341</v>
+      </c>
+      <c r="H32" s="10">
+        <v>13373</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -1406,9 +1461,11 @@
         <v>3206</v>
       </c>
       <c r="G33" s="10">
-        <v>2648</v>
-      </c>
-      <c r="H33" s="10"/>
+        <v>2684</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1992</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -1435,7 +1492,9 @@
       <c r="G34" s="11">
         <v>19.100000000000001</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11">
+        <v>13</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -1478,7 +1537,9 @@
       <c r="G36" s="5">
         <v>43952</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5">
+        <v>43983</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -1507,9 +1568,11 @@
         <v>7409</v>
       </c>
       <c r="G37" s="10">
-        <v>7363</v>
-      </c>
-      <c r="H37" s="10"/>
+        <v>7354</v>
+      </c>
+      <c r="H37" s="10">
+        <v>8026</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -1537,9 +1600,11 @@
         <v>6576</v>
       </c>
       <c r="G38" s="10">
-        <v>6661</v>
-      </c>
-      <c r="H38" s="10"/>
+        <v>6650</v>
+      </c>
+      <c r="H38" s="10">
+        <v>7411</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -1567,9 +1632,11 @@
         <v>833</v>
       </c>
       <c r="G39" s="10">
-        <v>702</v>
-      </c>
-      <c r="H39" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="H39" s="10">
+        <v>615</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -1597,9 +1664,11 @@
         <v>11.2</v>
       </c>
       <c r="G40" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="H40" s="11"/>
+        <v>9.6</v>
+      </c>
+      <c r="H40" s="11">
+        <v>7.7</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
@@ -1642,7 +1711,9 @@
       <c r="G42" s="5">
         <v>43952</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5">
+        <v>43983</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -1671,9 +1742,11 @@
         <v>10985</v>
       </c>
       <c r="G43" s="10">
-        <v>10884</v>
-      </c>
-      <c r="H43" s="10"/>
+        <v>10881</v>
+      </c>
+      <c r="H43" s="10">
+        <v>11698</v>
+      </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -1701,9 +1774,11 @@
         <v>9343</v>
       </c>
       <c r="G44" s="10">
-        <v>9464</v>
-      </c>
-      <c r="H44" s="10"/>
+        <v>9449</v>
+      </c>
+      <c r="H44" s="10">
+        <v>10530</v>
+      </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -1731,9 +1806,11 @@
         <v>1642</v>
       </c>
       <c r="G45" s="10">
-        <v>1420</v>
-      </c>
-      <c r="H45" s="10"/>
+        <v>1432</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1168</v>
+      </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -1761,9 +1838,11 @@
         <v>14.9</v>
       </c>
       <c r="G46" s="11">
-        <v>13</v>
-      </c>
-      <c r="H46" s="11"/>
+        <v>13.2</v>
+      </c>
+      <c r="H46" s="11">
+        <v>10</v>
+      </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -1806,7 +1885,9 @@
       <c r="G48" s="5">
         <v>43952</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5">
+        <v>43983</v>
+      </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -1835,9 +1916,11 @@
         <v>8550</v>
       </c>
       <c r="G49" s="10">
-        <v>8442</v>
-      </c>
-      <c r="H49" s="10"/>
+        <v>8443</v>
+      </c>
+      <c r="H49" s="10">
+        <v>9047</v>
+      </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
@@ -1865,9 +1948,11 @@
         <v>7159</v>
       </c>
       <c r="G50" s="10">
-        <v>7252</v>
-      </c>
-      <c r="H50" s="10"/>
+        <v>7240</v>
+      </c>
+      <c r="H50" s="10">
+        <v>8068</v>
+      </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
@@ -1895,9 +1980,11 @@
         <v>1391</v>
       </c>
       <c r="G51" s="10">
-        <v>1190</v>
-      </c>
-      <c r="H51" s="10"/>
+        <v>1203</v>
+      </c>
+      <c r="H51" s="10">
+        <v>979</v>
+      </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
@@ -1925,9 +2012,11 @@
         <v>16.3</v>
       </c>
       <c r="G52" s="11">
-        <v>14.1</v>
-      </c>
-      <c r="H52" s="11"/>
+        <v>14.2</v>
+      </c>
+      <c r="H52" s="11">
+        <v>10.8</v>
+      </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -1970,7 +2059,9 @@
       <c r="G54" s="5">
         <v>43952</v>
       </c>
-      <c r="H54" s="5"/>
+      <c r="H54" s="5">
+        <v>43983</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -1999,9 +2090,11 @@
         <v>8279</v>
       </c>
       <c r="G55" s="10">
-        <v>8295</v>
-      </c>
-      <c r="H55" s="10"/>
+        <v>8300</v>
+      </c>
+      <c r="H55" s="10">
+        <v>8806</v>
+      </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -2029,9 +2122,11 @@
         <v>6562</v>
       </c>
       <c r="G56" s="10">
-        <v>6647</v>
-      </c>
-      <c r="H56" s="10"/>
+        <v>6637</v>
+      </c>
+      <c r="H56" s="10">
+        <v>7396</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -2059,9 +2154,11 @@
         <v>1717</v>
       </c>
       <c r="G57" s="10">
-        <v>1648</v>
-      </c>
-      <c r="H57" s="10"/>
+        <v>1663</v>
+      </c>
+      <c r="H57" s="10">
+        <v>1410</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -2089,9 +2186,11 @@
         <v>20.7</v>
       </c>
       <c r="G58" s="11">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H58" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="H58" s="11">
+        <v>16</v>
+      </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -2134,7 +2233,9 @@
       <c r="G60" s="5">
         <v>43952</v>
       </c>
-      <c r="H60" s="5"/>
+      <c r="H60" s="5">
+        <v>43983</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2163,9 +2264,11 @@
         <v>3928</v>
       </c>
       <c r="G61" s="10">
-        <v>3840</v>
-      </c>
-      <c r="H61" s="10"/>
+        <v>3845</v>
+      </c>
+      <c r="H61" s="10">
+        <v>4080</v>
+      </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -2193,9 +2296,11 @@
         <v>3185</v>
       </c>
       <c r="G62" s="10">
-        <v>3226</v>
-      </c>
-      <c r="H62" s="10"/>
+        <v>3221</v>
+      </c>
+      <c r="H62" s="10">
+        <v>3589</v>
+      </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -2223,9 +2328,11 @@
         <v>743</v>
       </c>
       <c r="G63" s="10">
-        <v>614</v>
-      </c>
-      <c r="H63" s="10"/>
+        <v>624</v>
+      </c>
+      <c r="H63" s="10">
+        <v>491</v>
+      </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -2253,9 +2360,11 @@
         <v>18.899999999999999</v>
       </c>
       <c r="G64" s="11">
-        <v>16</v>
-      </c>
-      <c r="H64" s="11"/>
+        <v>16.2</v>
+      </c>
+      <c r="H64" s="11">
+        <v>12</v>
+      </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -2298,7 +2407,9 @@
       <c r="G66" s="5">
         <v>43952</v>
       </c>
-      <c r="H66" s="5"/>
+      <c r="H66" s="5">
+        <v>43983</v>
+      </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2327,9 +2438,11 @@
         <v>17762</v>
       </c>
       <c r="G67" s="10">
-        <v>17390</v>
-      </c>
-      <c r="H67" s="10"/>
+        <v>17400</v>
+      </c>
+      <c r="H67" s="10">
+        <v>18338</v>
+      </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
@@ -2357,9 +2470,11 @@
         <v>14529</v>
       </c>
       <c r="G68" s="10">
-        <v>14718</v>
-      </c>
-      <c r="H68" s="10"/>
+        <v>14694</v>
+      </c>
+      <c r="H68" s="10">
+        <v>16375</v>
+      </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -2387,9 +2502,11 @@
         <v>3233</v>
       </c>
       <c r="G69" s="10">
-        <v>2672</v>
-      </c>
-      <c r="H69" s="10"/>
+        <v>2706</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1963</v>
+      </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
@@ -2417,9 +2534,11 @@
         <v>18.2</v>
       </c>
       <c r="G70" s="11">
-        <v>15.4</v>
-      </c>
-      <c r="H70" s="11"/>
+        <v>15.6</v>
+      </c>
+      <c r="H70" s="11">
+        <v>10.7</v>
+      </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
@@ -2462,7 +2581,9 @@
       <c r="G72" s="5">
         <v>43952</v>
       </c>
-      <c r="H72" s="5"/>
+      <c r="H72" s="5">
+        <v>43983</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -2491,9 +2612,11 @@
         <v>39854</v>
       </c>
       <c r="G73" s="10">
-        <v>39347</v>
-      </c>
-      <c r="H73" s="10"/>
+        <v>39370</v>
+      </c>
+      <c r="H73" s="10">
+        <v>41674</v>
+      </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
@@ -2521,9 +2644,11 @@
         <v>32270</v>
       </c>
       <c r="G74" s="10">
-        <v>32688</v>
-      </c>
-      <c r="H74" s="10"/>
+        <v>32636</v>
+      </c>
+      <c r="H74" s="10">
+        <v>36368</v>
+      </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="10"/>
@@ -2551,9 +2676,11 @@
         <v>7584</v>
       </c>
       <c r="G75" s="10">
-        <v>6659</v>
-      </c>
-      <c r="H75" s="10"/>
+        <v>6734</v>
+      </c>
+      <c r="H75" s="10">
+        <v>5306</v>
+      </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
@@ -2581,9 +2708,11 @@
         <v>19</v>
       </c>
       <c r="G76" s="11">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H76" s="11"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H76" s="11">
+        <v>12.7</v>
+      </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
@@ -2626,7 +2755,9 @@
       <c r="G78" s="5">
         <v>43952</v>
       </c>
-      <c r="H78" s="5"/>
+      <c r="H78" s="5">
+        <v>43983</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -2655,9 +2786,11 @@
         <v>18368</v>
       </c>
       <c r="G79" s="10">
-        <v>18214</v>
-      </c>
-      <c r="H79" s="10"/>
+        <v>18206</v>
+      </c>
+      <c r="H79" s="10">
+        <v>19498</v>
+      </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -2685,9 +2818,11 @@
         <v>15497</v>
       </c>
       <c r="G80" s="10">
-        <v>15698</v>
-      </c>
-      <c r="H80" s="10"/>
+        <v>15673</v>
+      </c>
+      <c r="H80" s="10">
+        <v>17466</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
@@ -2715,9 +2850,11 @@
         <v>2871</v>
       </c>
       <c r="G81" s="10">
-        <v>2516</v>
-      </c>
-      <c r="H81" s="10"/>
+        <v>2533</v>
+      </c>
+      <c r="H81" s="10">
+        <v>2032</v>
+      </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
@@ -2745,9 +2882,11 @@
         <v>15.6</v>
       </c>
       <c r="G82" s="11">
-        <v>13.8</v>
-      </c>
-      <c r="H82" s="11"/>
+        <v>13.9</v>
+      </c>
+      <c r="H82" s="11">
+        <v>10.4</v>
+      </c>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
@@ -2790,7 +2929,9 @@
       <c r="G84" s="5">
         <v>43952</v>
       </c>
-      <c r="H84" s="5"/>
+      <c r="H84" s="5">
+        <v>43983</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -2819,9 +2960,11 @@
         <v>6478</v>
       </c>
       <c r="G85" s="10">
-        <v>6346</v>
-      </c>
-      <c r="H85" s="10"/>
+        <v>6347</v>
+      </c>
+      <c r="H85" s="10">
+        <v>6766</v>
+      </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
@@ -2849,9 +2992,11 @@
         <v>5355</v>
       </c>
       <c r="G86" s="10">
-        <v>5424</v>
-      </c>
-      <c r="H86" s="10"/>
+        <v>5415</v>
+      </c>
+      <c r="H86" s="10">
+        <v>6035</v>
+      </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -2879,9 +3024,11 @@
         <v>1123</v>
       </c>
       <c r="G87" s="10">
-        <v>922</v>
-      </c>
-      <c r="H87" s="10"/>
+        <v>932</v>
+      </c>
+      <c r="H87" s="10">
+        <v>731</v>
+      </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
@@ -2909,9 +3056,11 @@
         <v>17.3</v>
       </c>
       <c r="G88" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="H88" s="11"/>
+        <v>14.7</v>
+      </c>
+      <c r="H88" s="11">
+        <v>10.8</v>
+      </c>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
@@ -2954,7 +3103,9 @@
       <c r="G90" s="5">
         <v>43952</v>
       </c>
-      <c r="H90" s="5"/>
+      <c r="H90" s="5">
+        <v>43983</v>
+      </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -2983,9 +3134,11 @@
         <v>23149</v>
       </c>
       <c r="G91" s="10">
-        <v>22817</v>
-      </c>
-      <c r="H91" s="10"/>
+        <v>22812</v>
+      </c>
+      <c r="H91" s="10">
+        <v>24227</v>
+      </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
@@ -3013,9 +3166,11 @@
         <v>18858</v>
       </c>
       <c r="G92" s="10">
-        <v>19103</v>
-      </c>
-      <c r="H92" s="10"/>
+        <v>19072</v>
+      </c>
+      <c r="H92" s="10">
+        <v>21253</v>
+      </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
@@ -3043,9 +3198,11 @@
         <v>4291</v>
       </c>
       <c r="G93" s="10">
-        <v>3714</v>
-      </c>
-      <c r="H93" s="10"/>
+        <v>3740</v>
+      </c>
+      <c r="H93" s="10">
+        <v>2974</v>
+      </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -3073,9 +3230,11 @@
         <v>18.5</v>
       </c>
       <c r="G94" s="11">
-        <v>16.3</v>
-      </c>
-      <c r="H94" s="11"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H94" s="11">
+        <v>12.3</v>
+      </c>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
@@ -3118,7 +3277,9 @@
       <c r="G96" s="5">
         <v>43952</v>
       </c>
-      <c r="H96" s="5"/>
+      <c r="H96" s="5">
+        <v>43983</v>
+      </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -3147,9 +3308,11 @@
         <v>3598</v>
       </c>
       <c r="G97" s="10">
-        <v>3526</v>
-      </c>
-      <c r="H97" s="10"/>
+        <v>3522</v>
+      </c>
+      <c r="H97" s="10">
+        <v>3779</v>
+      </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -3177,9 +3340,11 @@
         <v>3054</v>
       </c>
       <c r="G98" s="10">
-        <v>3094</v>
-      </c>
-      <c r="H98" s="10"/>
+        <v>3089</v>
+      </c>
+      <c r="H98" s="10">
+        <v>3442</v>
+      </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -3207,9 +3372,11 @@
         <v>544</v>
       </c>
       <c r="G99" s="10">
-        <v>432</v>
-      </c>
-      <c r="H99" s="10"/>
+        <v>433</v>
+      </c>
+      <c r="H99" s="10">
+        <v>337</v>
+      </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
@@ -3239,7 +3406,9 @@
       <c r="G100" s="11">
         <v>12.3</v>
       </c>
-      <c r="H100" s="11"/>
+      <c r="H100" s="11">
+        <v>8.9</v>
+      </c>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
@@ -3282,7 +3451,9 @@
       <c r="G102" s="5">
         <v>43952</v>
       </c>
-      <c r="H102" s="5"/>
+      <c r="H102" s="5">
+        <v>43983</v>
+      </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3311,9 +3482,11 @@
         <v>2653</v>
       </c>
       <c r="G103" s="10">
-        <v>2617</v>
-      </c>
-      <c r="H103" s="10"/>
+        <v>2615</v>
+      </c>
+      <c r="H103" s="10">
+        <v>2800</v>
+      </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
@@ -3341,9 +3514,11 @@
         <v>2224</v>
       </c>
       <c r="G104" s="10">
-        <v>2253</v>
-      </c>
-      <c r="H104" s="10"/>
+        <v>2249</v>
+      </c>
+      <c r="H104" s="10">
+        <v>2506</v>
+      </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
@@ -3371,9 +3546,11 @@
         <v>429</v>
       </c>
       <c r="G105" s="10">
-        <v>364</v>
-      </c>
-      <c r="H105" s="10"/>
+        <v>366</v>
+      </c>
+      <c r="H105" s="10">
+        <v>294</v>
+      </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
@@ -3401,9 +3578,11 @@
         <v>16.2</v>
       </c>
       <c r="G106" s="11">
-        <v>13.9</v>
-      </c>
-      <c r="H106" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="H106" s="11">
+        <v>10.5</v>
+      </c>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
@@ -3446,7 +3625,9 @@
       <c r="G108" s="5">
         <v>43952</v>
       </c>
-      <c r="H108" s="5"/>
+      <c r="H108" s="5">
+        <v>43983</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3475,9 +3656,11 @@
         <v>5471</v>
       </c>
       <c r="G109" s="10">
-        <v>5406</v>
-      </c>
-      <c r="H109" s="10"/>
+        <v>5404</v>
+      </c>
+      <c r="H109" s="10">
+        <v>5865</v>
+      </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -3505,9 +3688,11 @@
         <v>4806</v>
       </c>
       <c r="G110" s="10">
-        <v>4868</v>
-      </c>
-      <c r="H110" s="10"/>
+        <v>4860</v>
+      </c>
+      <c r="H110" s="10">
+        <v>5416</v>
+      </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -3535,9 +3720,11 @@
         <v>665</v>
       </c>
       <c r="G111" s="10">
-        <v>538</v>
-      </c>
-      <c r="H111" s="10"/>
+        <v>544</v>
+      </c>
+      <c r="H111" s="10">
+        <v>449</v>
+      </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -3565,9 +3752,11 @@
         <v>12.2</v>
       </c>
       <c r="G112" s="11">
-        <v>10</v>
-      </c>
-      <c r="H112" s="11"/>
+        <v>10.1</v>
+      </c>
+      <c r="H112" s="11">
+        <v>7.7</v>
+      </c>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
@@ -3610,7 +3799,9 @@
       <c r="G114" s="5">
         <v>43952</v>
       </c>
-      <c r="H114" s="5"/>
+      <c r="H114" s="5">
+        <v>43983</v>
+      </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -3639,9 +3830,11 @@
         <v>4002</v>
       </c>
       <c r="G115" s="10">
-        <v>3922</v>
-      </c>
-      <c r="H115" s="10"/>
+        <v>3949</v>
+      </c>
+      <c r="H115" s="10">
+        <v>4439</v>
+      </c>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="10"/>
@@ -3669,9 +3862,11 @@
         <v>3293</v>
       </c>
       <c r="G116" s="10">
-        <v>3352</v>
-      </c>
-      <c r="H116" s="10"/>
+        <v>3379</v>
+      </c>
+      <c r="H116" s="10">
+        <v>3984</v>
+      </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -3701,7 +3896,9 @@
       <c r="G117" s="10">
         <v>570</v>
       </c>
-      <c r="H117" s="10"/>
+      <c r="H117" s="10">
+        <v>455</v>
+      </c>
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -3729,9 +3926,11 @@
         <v>17.7</v>
       </c>
       <c r="G118" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="H118" s="11"/>
+        <v>14.4</v>
+      </c>
+      <c r="H118" s="11">
+        <v>10.3</v>
+      </c>
       <c r="I118" s="11"/>
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
@@ -3774,7 +3973,9 @@
       <c r="G120" s="5">
         <v>43952</v>
       </c>
-      <c r="H120" s="5"/>
+      <c r="H120" s="5">
+        <v>43983</v>
+      </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -3803,9 +4004,11 @@
         <v>2827</v>
       </c>
       <c r="G121" s="10">
-        <v>2815</v>
-      </c>
-      <c r="H121" s="10"/>
+        <v>2818</v>
+      </c>
+      <c r="H121" s="10">
+        <v>3088</v>
+      </c>
       <c r="I121" s="10"/>
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
@@ -3833,9 +4036,11 @@
         <v>2546</v>
       </c>
       <c r="G122" s="10">
-        <v>2579</v>
-      </c>
-      <c r="H122" s="10"/>
+        <v>2575</v>
+      </c>
+      <c r="H122" s="10">
+        <v>2869</v>
+      </c>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
       <c r="K122" s="10"/>
@@ -3863,9 +4068,11 @@
         <v>281</v>
       </c>
       <c r="G123" s="10">
-        <v>236</v>
-      </c>
-      <c r="H123" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="H123" s="10">
+        <v>219</v>
+      </c>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
@@ -3893,9 +4100,11 @@
         <v>9.9</v>
       </c>
       <c r="G124" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="H124" s="11"/>
+        <v>8.6</v>
+      </c>
+      <c r="H124" s="11">
+        <v>7.1</v>
+      </c>
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
@@ -3938,7 +4147,9 @@
       <c r="G126" s="5">
         <v>43952</v>
       </c>
-      <c r="H126" s="5"/>
+      <c r="H126" s="5">
+        <v>43983</v>
+      </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -3967,9 +4178,11 @@
         <v>15226</v>
       </c>
       <c r="G127" s="10">
-        <v>15018</v>
-      </c>
-      <c r="H127" s="10"/>
+        <v>15028</v>
+      </c>
+      <c r="H127" s="10">
+        <v>15794</v>
+      </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
@@ -3997,9 +4210,11 @@
         <v>12209</v>
       </c>
       <c r="G128" s="10">
-        <v>12368</v>
-      </c>
-      <c r="H128" s="10"/>
+        <v>12348</v>
+      </c>
+      <c r="H128" s="10">
+        <v>13760</v>
+      </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -4027,9 +4242,11 @@
         <v>3017</v>
       </c>
       <c r="G129" s="10">
-        <v>2650</v>
-      </c>
-      <c r="H129" s="10"/>
+        <v>2680</v>
+      </c>
+      <c r="H129" s="10">
+        <v>2034</v>
+      </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="10"/>
@@ -4057,9 +4274,11 @@
         <v>19.8</v>
       </c>
       <c r="G130" s="11">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H130" s="11"/>
+        <v>17.8</v>
+      </c>
+      <c r="H130" s="11">
+        <v>12.9</v>
+      </c>
       <c r="I130" s="11"/>
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
@@ -4102,7 +4321,9 @@
       <c r="G132" s="5">
         <v>43952</v>
       </c>
-      <c r="H132" s="5"/>
+      <c r="H132" s="5">
+        <v>43983</v>
+      </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -4131,9 +4352,11 @@
         <v>11613</v>
       </c>
       <c r="G133" s="10">
-        <v>11507</v>
-      </c>
-      <c r="H133" s="10"/>
+        <v>11504</v>
+      </c>
+      <c r="H133" s="10">
+        <v>12277</v>
+      </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -4161,9 +4384,11 @@
         <v>9721</v>
       </c>
       <c r="G134" s="10">
-        <v>9847</v>
-      </c>
-      <c r="H134" s="10"/>
+        <v>9831</v>
+      </c>
+      <c r="H134" s="10">
+        <v>10955</v>
+      </c>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
       <c r="K134" s="10"/>
@@ -4191,9 +4416,11 @@
         <v>1892</v>
       </c>
       <c r="G135" s="10">
-        <v>1660</v>
-      </c>
-      <c r="H135" s="10"/>
+        <v>1673</v>
+      </c>
+      <c r="H135" s="10">
+        <v>1322</v>
+      </c>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
@@ -4221,9 +4448,11 @@
         <v>16.3</v>
       </c>
       <c r="G136" s="11">
-        <v>14.4</v>
-      </c>
-      <c r="H136" s="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="H136" s="11">
+        <v>10.8</v>
+      </c>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="11"/>
@@ -4266,7 +4495,9 @@
       <c r="G138" s="5">
         <v>43952</v>
       </c>
-      <c r="H138" s="5"/>
+      <c r="H138" s="5">
+        <v>43983</v>
+      </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -4295,9 +4526,11 @@
         <v>1683</v>
       </c>
       <c r="G139" s="10">
-        <v>1673</v>
-      </c>
-      <c r="H139" s="10"/>
+        <v>1669</v>
+      </c>
+      <c r="H139" s="10">
+        <v>1800</v>
+      </c>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
@@ -4325,9 +4558,11 @@
         <v>1470</v>
       </c>
       <c r="G140" s="10">
-        <v>1489</v>
-      </c>
-      <c r="H140" s="10"/>
+        <v>1486</v>
+      </c>
+      <c r="H140" s="10">
+        <v>1656</v>
+      </c>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
       <c r="K140" s="10"/>
@@ -4355,9 +4590,11 @@
         <v>213</v>
       </c>
       <c r="G141" s="10">
-        <v>184</v>
-      </c>
-      <c r="H141" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="H141" s="10">
+        <v>144</v>
+      </c>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
       <c r="K141" s="10"/>
@@ -4387,7 +4624,9 @@
       <c r="G142" s="11">
         <v>11</v>
       </c>
-      <c r="H142" s="11"/>
+      <c r="H142" s="11">
+        <v>8</v>
+      </c>
       <c r="I142" s="11"/>
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
@@ -4430,7 +4669,9 @@
       <c r="G144" s="5">
         <v>43952</v>
       </c>
-      <c r="H144" s="5"/>
+      <c r="H144" s="5">
+        <v>43983</v>
+      </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -4459,9 +4700,11 @@
         <v>7517</v>
       </c>
       <c r="G145" s="10">
-        <v>7378</v>
-      </c>
-      <c r="H145" s="10"/>
+        <v>7379</v>
+      </c>
+      <c r="H145" s="10">
+        <v>7858</v>
+      </c>
       <c r="I145" s="10"/>
       <c r="J145" s="10"/>
       <c r="K145" s="10"/>
@@ -4489,9 +4732,11 @@
         <v>6170</v>
       </c>
       <c r="G146" s="10">
-        <v>6250</v>
-      </c>
-      <c r="H146" s="10"/>
+        <v>6240</v>
+      </c>
+      <c r="H146" s="10">
+        <v>6954</v>
+      </c>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10"/>
@@ -4519,9 +4764,11 @@
         <v>1347</v>
       </c>
       <c r="G147" s="10">
-        <v>1128</v>
-      </c>
-      <c r="H147" s="10"/>
+        <v>1139</v>
+      </c>
+      <c r="H147" s="10">
+        <v>904</v>
+      </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -4549,9 +4796,11 @@
         <v>17.899999999999999</v>
       </c>
       <c r="G148" s="11">
-        <v>15.3</v>
-      </c>
-      <c r="H148" s="11"/>
+        <v>15.4</v>
+      </c>
+      <c r="H148" s="11">
+        <v>11.5</v>
+      </c>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
@@ -4594,7 +4843,9 @@
       <c r="G150" s="5">
         <v>43952</v>
       </c>
-      <c r="H150" s="5"/>
+      <c r="H150" s="5">
+        <v>43983</v>
+      </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -4623,9 +4874,11 @@
         <v>7942</v>
       </c>
       <c r="G151" s="10">
-        <v>7941</v>
-      </c>
-      <c r="H151" s="10"/>
+        <v>7936</v>
+      </c>
+      <c r="H151" s="10">
+        <v>8613</v>
+      </c>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -4653,9 +4906,11 @@
         <v>7071</v>
       </c>
       <c r="G152" s="10">
-        <v>7163</v>
-      </c>
-      <c r="H152" s="10"/>
+        <v>7151</v>
+      </c>
+      <c r="H152" s="10">
+        <v>7969</v>
+      </c>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -4683,9 +4938,11 @@
         <v>871</v>
       </c>
       <c r="G153" s="10">
-        <v>778</v>
-      </c>
-      <c r="H153" s="10"/>
+        <v>785</v>
+      </c>
+      <c r="H153" s="10">
+        <v>644</v>
+      </c>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -4713,9 +4970,11 @@
         <v>11</v>
       </c>
       <c r="G154" s="11">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H154" s="11"/>
+        <v>9.9</v>
+      </c>
+      <c r="H154" s="11">
+        <v>7.5</v>
+      </c>
       <c r="I154" s="11"/>
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
@@ -4758,7 +5017,9 @@
       <c r="G156" s="5">
         <v>43952</v>
       </c>
-      <c r="H156" s="5"/>
+      <c r="H156" s="5">
+        <v>43983</v>
+      </c>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -4787,9 +5048,11 @@
         <v>524</v>
       </c>
       <c r="G157" s="10">
-        <v>656</v>
-      </c>
-      <c r="H157" s="10"/>
+        <v>657</v>
+      </c>
+      <c r="H157" s="10">
+        <v>1116</v>
+      </c>
       <c r="I157" s="10"/>
       <c r="J157" s="10"/>
       <c r="K157" s="10"/>
@@ -4817,9 +5080,11 @@
         <v>355</v>
       </c>
       <c r="G158" s="10">
-        <v>527</v>
-      </c>
-      <c r="H158" s="10"/>
+        <v>526</v>
+      </c>
+      <c r="H158" s="10">
+        <v>1029</v>
+      </c>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
@@ -4847,9 +5112,11 @@
         <v>169</v>
       </c>
       <c r="G159" s="10">
-        <v>129</v>
-      </c>
-      <c r="H159" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="H159" s="10">
+        <v>87</v>
+      </c>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
@@ -4877,9 +5144,11 @@
         <v>32.299999999999997</v>
       </c>
       <c r="G160" s="11">
-        <v>19.7</v>
-      </c>
-      <c r="H160" s="11"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H160" s="11">
+        <v>7.8</v>
+      </c>
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
@@ -4922,7 +5191,9 @@
       <c r="G162" s="5">
         <v>43952</v>
       </c>
-      <c r="H162" s="5"/>
+      <c r="H162" s="5">
+        <v>43983</v>
+      </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -4951,9 +5222,11 @@
         <v>12870</v>
       </c>
       <c r="G163" s="10">
-        <v>12715</v>
-      </c>
-      <c r="H163" s="10"/>
+        <v>12725</v>
+      </c>
+      <c r="H163" s="10">
+        <v>13531</v>
+      </c>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
       <c r="K163" s="10"/>
@@ -4981,9 +5254,11 @@
         <v>10729</v>
       </c>
       <c r="G164" s="10">
-        <v>10868</v>
-      </c>
-      <c r="H164" s="10"/>
+        <v>10850</v>
+      </c>
+      <c r="H164" s="10">
+        <v>12091</v>
+      </c>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
       <c r="K164" s="10"/>
@@ -5011,9 +5286,11 @@
         <v>2141</v>
       </c>
       <c r="G165" s="10">
-        <v>1847</v>
-      </c>
-      <c r="H165" s="10"/>
+        <v>1875</v>
+      </c>
+      <c r="H165" s="10">
+        <v>1440</v>
+      </c>
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
       <c r="K165" s="10"/>
@@ -5041,9 +5318,11 @@
         <v>16.600000000000001</v>
       </c>
       <c r="G166" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="H166" s="11"/>
+        <v>14.7</v>
+      </c>
+      <c r="H166" s="11">
+        <v>10.6</v>
+      </c>
       <c r="I166" s="11"/>
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
@@ -5086,7 +5365,9 @@
       <c r="G168" s="5">
         <v>43952</v>
       </c>
-      <c r="H168" s="5"/>
+      <c r="H168" s="5">
+        <v>43983</v>
+      </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -5115,9 +5396,11 @@
         <v>13597</v>
       </c>
       <c r="G169" s="10">
-        <v>13425</v>
-      </c>
-      <c r="H169" s="10"/>
+        <v>13430</v>
+      </c>
+      <c r="H169" s="10">
+        <v>14321</v>
+      </c>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
       <c r="K169" s="10"/>
@@ -5145,9 +5428,11 @@
         <v>11503</v>
       </c>
       <c r="G170" s="10">
-        <v>11652</v>
-      </c>
-      <c r="H170" s="10"/>
+        <v>11634</v>
+      </c>
+      <c r="H170" s="10">
+        <v>12964</v>
+      </c>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="10"/>
@@ -5175,9 +5460,11 @@
         <v>2094</v>
       </c>
       <c r="G171" s="10">
-        <v>1773</v>
-      </c>
-      <c r="H171" s="10"/>
+        <v>1796</v>
+      </c>
+      <c r="H171" s="10">
+        <v>1357</v>
+      </c>
       <c r="I171" s="10"/>
       <c r="J171" s="10"/>
       <c r="K171" s="10"/>
@@ -5205,9 +5492,11 @@
         <v>15.4</v>
       </c>
       <c r="G172" s="11">
-        <v>13.2</v>
-      </c>
-      <c r="H172" s="11"/>
+        <v>13.4</v>
+      </c>
+      <c r="H172" s="11">
+        <v>9.5</v>
+      </c>
       <c r="I172" s="11"/>
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
@@ -5250,7 +5539,9 @@
       <c r="G174" s="5">
         <v>43952</v>
       </c>
-      <c r="H174" s="5"/>
+      <c r="H174" s="5">
+        <v>43983</v>
+      </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -5279,9 +5570,11 @@
         <v>17449</v>
       </c>
       <c r="G175" s="10">
-        <v>17321</v>
-      </c>
-      <c r="H175" s="10"/>
+        <v>17320</v>
+      </c>
+      <c r="H175" s="10">
+        <v>18305</v>
+      </c>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
@@ -5309,9 +5602,11 @@
         <v>14056</v>
       </c>
       <c r="G176" s="10">
-        <v>14239</v>
-      </c>
-      <c r="H176" s="10"/>
+        <v>14216</v>
+      </c>
+      <c r="H176" s="10">
+        <v>15842</v>
+      </c>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
       <c r="K176" s="10"/>
@@ -5339,9 +5634,11 @@
         <v>3393</v>
       </c>
       <c r="G177" s="10">
-        <v>3082</v>
-      </c>
-      <c r="H177" s="10"/>
+        <v>3104</v>
+      </c>
+      <c r="H177" s="10">
+        <v>2463</v>
+      </c>
       <c r="I177" s="10"/>
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
@@ -5369,9 +5666,11 @@
         <v>19.399999999999999</v>
       </c>
       <c r="G178" s="11">
-        <v>17.8</v>
-      </c>
-      <c r="H178" s="11"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H178" s="11">
+        <v>13.5</v>
+      </c>
       <c r="I178" s="11"/>
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
@@ -5414,7 +5713,9 @@
       <c r="G180" s="5">
         <v>43952</v>
       </c>
-      <c r="H180" s="5"/>
+      <c r="H180" s="5">
+        <v>43983</v>
+      </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -5443,9 +5744,11 @@
         <v>6335</v>
       </c>
       <c r="G181" s="10">
-        <v>6336</v>
-      </c>
-      <c r="H181" s="10"/>
+        <v>6334</v>
+      </c>
+      <c r="H181" s="10">
+        <v>6792</v>
+      </c>
       <c r="I181" s="10"/>
       <c r="J181" s="10"/>
       <c r="K181" s="10"/>
@@ -5473,9 +5776,11 @@
         <v>5435</v>
       </c>
       <c r="G182" s="10">
-        <v>5505</v>
-      </c>
-      <c r="H182" s="10"/>
+        <v>5496</v>
+      </c>
+      <c r="H182" s="10">
+        <v>6125</v>
+      </c>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
       <c r="K182" s="10"/>
@@ -5503,9 +5808,11 @@
         <v>900</v>
       </c>
       <c r="G183" s="10">
-        <v>831</v>
-      </c>
-      <c r="H183" s="10"/>
+        <v>838</v>
+      </c>
+      <c r="H183" s="10">
+        <v>667</v>
+      </c>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
       <c r="K183" s="10"/>
@@ -5533,9 +5840,11 @@
         <v>14.2</v>
       </c>
       <c r="G184" s="11">
-        <v>13.1</v>
-      </c>
-      <c r="H184" s="11"/>
+        <v>13.2</v>
+      </c>
+      <c r="H184" s="11">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="I184" s="11"/>
       <c r="J184" s="11"/>
       <c r="K184" s="11"/>
@@ -5578,7 +5887,9 @@
       <c r="G186" s="5">
         <v>43952</v>
       </c>
-      <c r="H186" s="5"/>
+      <c r="H186" s="5">
+        <v>43983</v>
+      </c>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -5607,9 +5918,11 @@
         <v>35400</v>
       </c>
       <c r="G187" s="10">
-        <v>35305</v>
-      </c>
-      <c r="H187" s="10"/>
+        <v>35329</v>
+      </c>
+      <c r="H187" s="10">
+        <v>37294</v>
+      </c>
       <c r="I187" s="10"/>
       <c r="J187" s="10"/>
       <c r="K187" s="10"/>
@@ -5637,9 +5950,11 @@
         <v>28173</v>
       </c>
       <c r="G188" s="10">
-        <v>28539</v>
-      </c>
-      <c r="H188" s="10"/>
+        <v>28493</v>
+      </c>
+      <c r="H188" s="10">
+        <v>31752</v>
+      </c>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
       <c r="K188" s="10"/>
@@ -5667,9 +5982,11 @@
         <v>7227</v>
       </c>
       <c r="G189" s="10">
-        <v>6766</v>
-      </c>
-      <c r="H189" s="10"/>
+        <v>6836</v>
+      </c>
+      <c r="H189" s="10">
+        <v>5542</v>
+      </c>
       <c r="I189" s="10"/>
       <c r="J189" s="10"/>
       <c r="K189" s="10"/>
@@ -5697,9 +6014,11 @@
         <v>20.399999999999999</v>
       </c>
       <c r="G190" s="11">
-        <v>19.2</v>
-      </c>
-      <c r="H190" s="11"/>
+        <v>19.3</v>
+      </c>
+      <c r="H190" s="11">
+        <v>14.9</v>
+      </c>
       <c r="I190" s="11"/>
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
@@ -5742,7 +6061,9 @@
       <c r="G192" s="5">
         <v>43952</v>
       </c>
-      <c r="H192" s="5"/>
+      <c r="H192" s="5">
+        <v>43983</v>
+      </c>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -5771,9 +6092,11 @@
         <v>8177</v>
       </c>
       <c r="G193" s="10">
-        <v>8072</v>
-      </c>
-      <c r="H193" s="10"/>
+        <v>8075</v>
+      </c>
+      <c r="H193" s="10">
+        <v>8629</v>
+      </c>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10"/>
@@ -5801,9 +6124,11 @@
         <v>6874</v>
       </c>
       <c r="G194" s="10">
-        <v>6963</v>
-      </c>
-      <c r="H194" s="10"/>
+        <v>6952</v>
+      </c>
+      <c r="H194" s="10">
+        <v>7747</v>
+      </c>
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
       <c r="K194" s="10"/>
@@ -5831,9 +6156,11 @@
         <v>1303</v>
       </c>
       <c r="G195" s="10">
-        <v>1109</v>
-      </c>
-      <c r="H195" s="10"/>
+        <v>1123</v>
+      </c>
+      <c r="H195" s="10">
+        <v>882</v>
+      </c>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10"/>
@@ -5861,9 +6188,11 @@
         <v>15.9</v>
       </c>
       <c r="G196" s="11">
-        <v>13.7</v>
-      </c>
-      <c r="H196" s="11"/>
+        <v>13.9</v>
+      </c>
+      <c r="H196" s="11">
+        <v>10.199999999999999</v>
+      </c>
       <c r="I196" s="11"/>
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
@@ -5906,7 +6235,9 @@
       <c r="G198" s="5">
         <v>43952</v>
       </c>
-      <c r="H198" s="5"/>
+      <c r="H198" s="5">
+        <v>43983</v>
+      </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -5935,9 +6266,11 @@
         <v>82701</v>
       </c>
       <c r="G199" s="10">
-        <v>82671</v>
-      </c>
-      <c r="H199" s="10"/>
+        <v>82823</v>
+      </c>
+      <c r="H199" s="10">
+        <v>88190</v>
+      </c>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
       <c r="K199" s="10"/>
@@ -5965,9 +6298,11 @@
         <v>66575</v>
       </c>
       <c r="G200" s="10">
-        <v>67438</v>
-      </c>
-      <c r="H200" s="10"/>
+        <v>67330</v>
+      </c>
+      <c r="H200" s="10">
+        <v>75031</v>
+      </c>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
       <c r="K200" s="10"/>
@@ -5995,9 +6330,11 @@
         <v>16126</v>
       </c>
       <c r="G201" s="10">
-        <v>15233</v>
-      </c>
-      <c r="H201" s="10"/>
+        <v>15493</v>
+      </c>
+      <c r="H201" s="10">
+        <v>13159</v>
+      </c>
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
       <c r="K201" s="10"/>
@@ -6025,9 +6362,11 @@
         <v>19.5</v>
       </c>
       <c r="G202" s="11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H202" s="11"/>
+        <v>18.7</v>
+      </c>
+      <c r="H202" s="11">
+        <v>14.9</v>
+      </c>
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
@@ -6070,7 +6409,9 @@
       <c r="G204" s="5">
         <v>43952</v>
       </c>
-      <c r="H204" s="5"/>
+      <c r="H204" s="5">
+        <v>43983</v>
+      </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -6099,9 +6440,11 @@
         <v>3811</v>
       </c>
       <c r="G205" s="10">
-        <v>3776</v>
-      </c>
-      <c r="H205" s="10"/>
+        <v>3768</v>
+      </c>
+      <c r="H205" s="10">
+        <v>4095</v>
+      </c>
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10"/>
@@ -6129,9 +6472,11 @@
         <v>3377</v>
       </c>
       <c r="G206" s="10">
-        <v>3421</v>
-      </c>
-      <c r="H206" s="10"/>
+        <v>3415</v>
+      </c>
+      <c r="H206" s="10">
+        <v>3806</v>
+      </c>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="10"/>
@@ -6159,9 +6504,11 @@
         <v>434</v>
       </c>
       <c r="G207" s="10">
-        <v>355</v>
-      </c>
-      <c r="H207" s="10"/>
+        <v>353</v>
+      </c>
+      <c r="H207" s="10">
+        <v>289</v>
+      </c>
       <c r="I207" s="10"/>
       <c r="J207" s="10"/>
       <c r="K207" s="10"/>
@@ -6191,7 +6538,9 @@
       <c r="G208" s="11">
         <v>9.4</v>
       </c>
-      <c r="H208" s="11"/>
+      <c r="H208" s="11">
+        <v>7.1</v>
+      </c>
       <c r="I208" s="11"/>
       <c r="J208" s="11"/>
       <c r="K208" s="11"/>
@@ -6234,7 +6583,9 @@
       <c r="G210" s="5">
         <v>43952</v>
       </c>
-      <c r="H210" s="5"/>
+      <c r="H210" s="5">
+        <v>43983</v>
+      </c>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -6263,9 +6614,11 @@
         <v>5946</v>
       </c>
       <c r="G211" s="10">
-        <v>5817</v>
-      </c>
-      <c r="H211" s="10"/>
+        <v>5818</v>
+      </c>
+      <c r="H211" s="10">
+        <v>6163</v>
+      </c>
       <c r="I211" s="10"/>
       <c r="J211" s="10"/>
       <c r="K211" s="10"/>
@@ -6293,9 +6646,11 @@
         <v>4847</v>
       </c>
       <c r="G212" s="10">
-        <v>4910</v>
-      </c>
-      <c r="H212" s="10"/>
+        <v>4902</v>
+      </c>
+      <c r="H212" s="10">
+        <v>5463</v>
+      </c>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
       <c r="K212" s="10"/>
@@ -6323,9 +6678,11 @@
         <v>1099</v>
       </c>
       <c r="G213" s="10">
-        <v>907</v>
-      </c>
-      <c r="H213" s="10"/>
+        <v>916</v>
+      </c>
+      <c r="H213" s="10">
+        <v>700</v>
+      </c>
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
       <c r="K213" s="10"/>
@@ -6353,9 +6710,11 @@
         <v>18.5</v>
       </c>
       <c r="G214" s="11">
-        <v>15.6</v>
-      </c>
-      <c r="H214" s="11"/>
+        <v>15.7</v>
+      </c>
+      <c r="H214" s="11">
+        <v>11.4</v>
+      </c>
       <c r="I214" s="11"/>
       <c r="J214" s="11"/>
       <c r="K214" s="11"/>
@@ -6398,7 +6757,9 @@
       <c r="G216" s="5">
         <v>43952</v>
       </c>
-      <c r="H216" s="5"/>
+      <c r="H216" s="5">
+        <v>43983</v>
+      </c>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -6427,9 +6788,11 @@
         <v>10496</v>
       </c>
       <c r="G217" s="10">
-        <v>10402</v>
-      </c>
-      <c r="H217" s="10"/>
+        <v>10390</v>
+      </c>
+      <c r="H217" s="10">
+        <v>11122</v>
+      </c>
       <c r="I217" s="10"/>
       <c r="J217" s="10"/>
       <c r="K217" s="10"/>
@@ -6457,9 +6820,11 @@
         <v>8894</v>
       </c>
       <c r="G218" s="10">
-        <v>9009</v>
-      </c>
-      <c r="H218" s="10"/>
+        <v>8995</v>
+      </c>
+      <c r="H218" s="10">
+        <v>10024</v>
+      </c>
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
       <c r="K218" s="10"/>
@@ -6487,9 +6852,11 @@
         <v>1602</v>
       </c>
       <c r="G219" s="10">
-        <v>1393</v>
-      </c>
-      <c r="H219" s="10"/>
+        <v>1395</v>
+      </c>
+      <c r="H219" s="10">
+        <v>1098</v>
+      </c>
       <c r="I219" s="10"/>
       <c r="J219" s="10"/>
       <c r="K219" s="10"/>
@@ -6519,7 +6886,9 @@
       <c r="G220" s="11">
         <v>13.4</v>
       </c>
-      <c r="H220" s="11"/>
+      <c r="H220" s="11">
+        <v>9.9</v>
+      </c>
       <c r="I220" s="11"/>
       <c r="J220" s="11"/>
       <c r="K220" s="11"/>
@@ -6562,7 +6931,9 @@
       <c r="G222" s="5">
         <v>43952</v>
       </c>
-      <c r="H222" s="5"/>
+      <c r="H222" s="5">
+        <v>43983</v>
+      </c>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -6591,9 +6962,11 @@
         <v>14637</v>
       </c>
       <c r="G223" s="10">
-        <v>14579</v>
-      </c>
-      <c r="H223" s="10"/>
+        <v>14575</v>
+      </c>
+      <c r="H223" s="10">
+        <v>15767</v>
+      </c>
       <c r="I223" s="10"/>
       <c r="J223" s="10"/>
       <c r="K223" s="10"/>
@@ -6621,9 +6994,11 @@
         <v>12813</v>
       </c>
       <c r="G224" s="10">
-        <v>12980</v>
-      </c>
-      <c r="H224" s="10"/>
+        <v>12959</v>
+      </c>
+      <c r="H224" s="10">
+        <v>14441</v>
+      </c>
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
       <c r="K224" s="10"/>
@@ -6651,9 +7026,11 @@
         <v>1824</v>
       </c>
       <c r="G225" s="10">
-        <v>1599</v>
-      </c>
-      <c r="H225" s="10"/>
+        <v>1616</v>
+      </c>
+      <c r="H225" s="10">
+        <v>1326</v>
+      </c>
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
       <c r="K225" s="10"/>
@@ -6681,9 +7058,11 @@
         <v>12.5</v>
       </c>
       <c r="G226" s="11">
-        <v>11</v>
-      </c>
-      <c r="H226" s="11"/>
+        <v>11.1</v>
+      </c>
+      <c r="H226" s="11">
+        <v>8.4</v>
+      </c>
       <c r="I226" s="11"/>
       <c r="J226" s="11"/>
       <c r="K226" s="11"/>
@@ -6726,7 +7105,9 @@
       <c r="G228" s="5">
         <v>43952</v>
       </c>
-      <c r="H228" s="5"/>
+      <c r="H228" s="5">
+        <v>43983</v>
+      </c>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
@@ -6755,9 +7136,11 @@
         <v>8098</v>
       </c>
       <c r="G229" s="10">
-        <v>7999</v>
-      </c>
-      <c r="H229" s="10"/>
+        <v>8000</v>
+      </c>
+      <c r="H229" s="10">
+        <v>8518</v>
+      </c>
       <c r="I229" s="10"/>
       <c r="J229" s="10"/>
       <c r="K229" s="10"/>
@@ -6785,9 +7168,11 @@
         <v>6749</v>
       </c>
       <c r="G230" s="10">
-        <v>6837</v>
-      </c>
-      <c r="H230" s="10"/>
+        <v>6826</v>
+      </c>
+      <c r="H230" s="10">
+        <v>7606</v>
+      </c>
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
       <c r="K230" s="10"/>
@@ -6815,9 +7200,11 @@
         <v>1349</v>
       </c>
       <c r="G231" s="10">
-        <v>1162</v>
-      </c>
-      <c r="H231" s="10"/>
+        <v>1174</v>
+      </c>
+      <c r="H231" s="10">
+        <v>912</v>
+      </c>
       <c r="I231" s="10"/>
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
@@ -6845,9 +7232,11 @@
         <v>16.7</v>
       </c>
       <c r="G232" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="H232" s="11"/>
+        <v>14.7</v>
+      </c>
+      <c r="H232" s="11">
+        <v>10.7</v>
+      </c>
       <c r="I232" s="11"/>
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
@@ -6890,7 +7279,9 @@
       <c r="G234" s="5">
         <v>43952</v>
       </c>
-      <c r="H234" s="5"/>
+      <c r="H234" s="5">
+        <v>43983</v>
+      </c>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
@@ -6919,9 +7310,11 @@
         <v>5365</v>
       </c>
       <c r="G235" s="10">
-        <v>5234</v>
-      </c>
-      <c r="H235" s="10"/>
+        <v>5232</v>
+      </c>
+      <c r="H235" s="10">
+        <v>5567</v>
+      </c>
       <c r="I235" s="10"/>
       <c r="J235" s="10"/>
       <c r="K235" s="10"/>
@@ -6949,9 +7342,11 @@
         <v>4388</v>
       </c>
       <c r="G236" s="10">
-        <v>4445</v>
-      </c>
-      <c r="H236" s="10"/>
+        <v>4438</v>
+      </c>
+      <c r="H236" s="10">
+        <v>4945</v>
+      </c>
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
       <c r="K236" s="10"/>
@@ -6979,9 +7374,11 @@
         <v>977</v>
       </c>
       <c r="G237" s="10">
-        <v>789</v>
-      </c>
-      <c r="H237" s="10"/>
+        <v>794</v>
+      </c>
+      <c r="H237" s="10">
+        <v>622</v>
+      </c>
       <c r="I237" s="10"/>
       <c r="J237" s="10"/>
       <c r="K237" s="10"/>
@@ -7009,9 +7406,11 @@
         <v>18.2</v>
       </c>
       <c r="G238" s="11">
-        <v>15.1</v>
-      </c>
-      <c r="H238" s="11"/>
+        <v>15.2</v>
+      </c>
+      <c r="H238" s="11">
+        <v>11.2</v>
+      </c>
       <c r="I238" s="11"/>
       <c r="J238" s="11"/>
       <c r="K238" s="11"/>
@@ -7054,7 +7453,9 @@
       <c r="G240" s="5">
         <v>43952</v>
       </c>
-      <c r="H240" s="5"/>
+      <c r="H240" s="5">
+        <v>43983</v>
+      </c>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -7083,9 +7484,11 @@
         <v>43227</v>
       </c>
       <c r="G241" s="10">
-        <v>42643</v>
-      </c>
-      <c r="H241" s="10"/>
+        <v>42644</v>
+      </c>
+      <c r="H241" s="10">
+        <v>45236</v>
+      </c>
       <c r="I241" s="10"/>
       <c r="J241" s="10"/>
       <c r="K241" s="10"/>
@@ -7113,9 +7516,11 @@
         <v>35684</v>
       </c>
       <c r="G242" s="10">
-        <v>36147</v>
-      </c>
-      <c r="H242" s="10"/>
+        <v>36090</v>
+      </c>
+      <c r="H242" s="10">
+        <v>40217</v>
+      </c>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
       <c r="K242" s="10"/>
@@ -7143,9 +7548,11 @@
         <v>7543</v>
       </c>
       <c r="G243" s="10">
-        <v>6496</v>
-      </c>
-      <c r="H243" s="10"/>
+        <v>6554</v>
+      </c>
+      <c r="H243" s="10">
+        <v>5019</v>
+      </c>
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="10"/>
@@ -7173,9 +7580,11 @@
         <v>17.399999999999999</v>
       </c>
       <c r="G244" s="11">
-        <v>15.2</v>
-      </c>
-      <c r="H244" s="11"/>
+        <v>15.4</v>
+      </c>
+      <c r="H244" s="11">
+        <v>11.1</v>
+      </c>
       <c r="I244" s="11"/>
       <c r="J244" s="11"/>
       <c r="K244" s="11"/>
@@ -7218,7 +7627,9 @@
       <c r="G246" s="5">
         <v>43952</v>
       </c>
-      <c r="H246" s="5"/>
+      <c r="H246" s="5">
+        <v>43983</v>
+      </c>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
@@ -7247,9 +7658,11 @@
         <v>3120</v>
       </c>
       <c r="G247" s="10">
-        <v>3064</v>
-      </c>
-      <c r="H247" s="10"/>
+        <v>3065</v>
+      </c>
+      <c r="H247" s="10">
+        <v>3266</v>
+      </c>
       <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
@@ -7277,9 +7690,11 @@
         <v>2584</v>
       </c>
       <c r="G248" s="10">
-        <v>2617</v>
-      </c>
-      <c r="H248" s="10"/>
+        <v>2613</v>
+      </c>
+      <c r="H248" s="10">
+        <v>2912</v>
+      </c>
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="10"/>
@@ -7307,9 +7722,11 @@
         <v>536</v>
       </c>
       <c r="G249" s="10">
-        <v>447</v>
-      </c>
-      <c r="H249" s="10"/>
+        <v>452</v>
+      </c>
+      <c r="H249" s="10">
+        <v>354</v>
+      </c>
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="10"/>
@@ -7337,9 +7754,11 @@
         <v>17.2</v>
       </c>
       <c r="G250" s="11">
-        <v>14.6</v>
-      </c>
-      <c r="H250" s="11"/>
+        <v>14.7</v>
+      </c>
+      <c r="H250" s="11">
+        <v>10.8</v>
+      </c>
       <c r="I250" s="11"/>
       <c r="J250" s="11"/>
       <c r="K250" s="11"/>
@@ -7381,7 +7800,9 @@
       <c r="G252" s="5">
         <v>43952</v>
       </c>
-      <c r="H252" s="5"/>
+      <c r="H252" s="5">
+        <v>43983</v>
+      </c>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
       <c r="K252" s="5"/>
@@ -7412,7 +7833,9 @@
       <c r="G253" s="10">
         <v>15466</v>
       </c>
-      <c r="H253" s="10"/>
+      <c r="H253" s="10">
+        <v>16187</v>
+      </c>
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="10"/>
@@ -7440,9 +7863,11 @@
         <v>12539</v>
       </c>
       <c r="G254" s="10">
-        <v>12701</v>
-      </c>
-      <c r="H254" s="10"/>
+        <v>12681</v>
+      </c>
+      <c r="H254" s="10">
+        <v>14131</v>
+      </c>
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10"/>
@@ -7470,9 +7895,11 @@
         <v>3154</v>
       </c>
       <c r="G255" s="10">
-        <v>2765</v>
-      </c>
-      <c r="H255" s="10"/>
+        <v>2785</v>
+      </c>
+      <c r="H255" s="10">
+        <v>2056</v>
+      </c>
       <c r="I255" s="10"/>
       <c r="J255" s="10"/>
       <c r="K255" s="10"/>
@@ -7500,9 +7927,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="G256" s="11">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H256" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="H256" s="11">
+        <v>12.7</v>
+      </c>
       <c r="I256" s="11"/>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
@@ -7545,7 +7974,9 @@
       <c r="G258" s="5">
         <v>43952</v>
       </c>
-      <c r="H258" s="5"/>
+      <c r="H258" s="5">
+        <v>43983</v>
+      </c>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
       <c r="K258" s="5"/>
@@ -7574,9 +8005,11 @@
         <v>10255</v>
       </c>
       <c r="G259" s="10">
-        <v>9975</v>
-      </c>
-      <c r="H259" s="10"/>
+        <v>10076</v>
+      </c>
+      <c r="H259" s="10">
+        <v>10926</v>
+      </c>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="10"/>
@@ -7604,9 +8037,11 @@
         <v>7758</v>
       </c>
       <c r="G260" s="10">
-        <v>7897</v>
-      </c>
-      <c r="H260" s="10"/>
+        <v>7962</v>
+      </c>
+      <c r="H260" s="10">
+        <v>9389</v>
+      </c>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
       <c r="K260" s="10"/>
@@ -7634,9 +8069,11 @@
         <v>2497</v>
       </c>
       <c r="G261" s="10">
-        <v>2078</v>
-      </c>
-      <c r="H261" s="10"/>
+        <v>2114</v>
+      </c>
+      <c r="H261" s="10">
+        <v>1537</v>
+      </c>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10"/>
@@ -7664,9 +8101,11 @@
         <v>24.3</v>
       </c>
       <c r="G262" s="11">
-        <v>20.8</v>
-      </c>
-      <c r="H262" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="H262" s="11">
+        <v>14.1</v>
+      </c>
       <c r="I262" s="11"/>
       <c r="J262" s="11"/>
       <c r="K262" s="11"/>
@@ -7709,7 +8148,9 @@
       <c r="G264" s="5">
         <v>43952</v>
       </c>
-      <c r="H264" s="5"/>
+      <c r="H264" s="5">
+        <v>43983</v>
+      </c>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
@@ -7738,9 +8179,11 @@
         <v>18366</v>
       </c>
       <c r="G265" s="10">
-        <v>18363</v>
-      </c>
-      <c r="H265" s="10"/>
+        <v>18360</v>
+      </c>
+      <c r="H265" s="10">
+        <v>19472</v>
+      </c>
       <c r="I265" s="10"/>
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
@@ -7768,9 +8211,11 @@
         <v>14619</v>
       </c>
       <c r="G266" s="10">
-        <v>14809</v>
-      </c>
-      <c r="H266" s="10"/>
+        <v>14785</v>
+      </c>
+      <c r="H266" s="10">
+        <v>16476</v>
+      </c>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
       <c r="K266" s="10"/>
@@ -7798,9 +8243,11 @@
         <v>3747</v>
       </c>
       <c r="G267" s="10">
-        <v>3554</v>
-      </c>
-      <c r="H267" s="10"/>
+        <v>3575</v>
+      </c>
+      <c r="H267" s="10">
+        <v>2996</v>
+      </c>
       <c r="I267" s="10"/>
       <c r="J267" s="10"/>
       <c r="K267" s="10"/>
@@ -7828,9 +8275,11 @@
         <v>20.399999999999999</v>
       </c>
       <c r="G268" s="11">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="H268" s="11"/>
+        <v>19.5</v>
+      </c>
+      <c r="H268" s="11">
+        <v>15.4</v>
+      </c>
       <c r="I268" s="11"/>
       <c r="J268" s="11"/>
       <c r="K268" s="11"/>
@@ -7873,7 +8322,9 @@
       <c r="G270" s="5">
         <v>43952</v>
       </c>
-      <c r="H270" s="5"/>
+      <c r="H270" s="5">
+        <v>43983</v>
+      </c>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
       <c r="K270" s="5"/>
@@ -7902,9 +8353,11 @@
         <v>23759</v>
       </c>
       <c r="G271" s="10">
-        <v>23481</v>
-      </c>
-      <c r="H271" s="10"/>
+        <v>23467</v>
+      </c>
+      <c r="H271" s="10">
+        <v>25291</v>
+      </c>
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
@@ -7932,9 +8385,11 @@
         <v>20307</v>
       </c>
       <c r="G272" s="10">
-        <v>20570</v>
-      </c>
-      <c r="H272" s="10"/>
+        <v>20537</v>
+      </c>
+      <c r="H272" s="10">
+        <v>22886</v>
+      </c>
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
@@ -7962,9 +8417,11 @@
         <v>3452</v>
       </c>
       <c r="G273" s="10">
-        <v>2911</v>
-      </c>
-      <c r="H273" s="10"/>
+        <v>2930</v>
+      </c>
+      <c r="H273" s="10">
+        <v>2405</v>
+      </c>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10"/>
@@ -7992,9 +8449,11 @@
         <v>14.5</v>
       </c>
       <c r="G274" s="11">
-        <v>12.4</v>
-      </c>
-      <c r="H274" s="11"/>
+        <v>12.5</v>
+      </c>
+      <c r="H274" s="11">
+        <v>9.5</v>
+      </c>
       <c r="I274" s="11"/>
       <c r="J274" s="11"/>
       <c r="K274" s="11"/>
@@ -8037,7 +8496,9 @@
       <c r="G276" s="5">
         <v>43952</v>
       </c>
-      <c r="H276" s="5"/>
+      <c r="H276" s="5">
+        <v>43983</v>
+      </c>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
       <c r="K276" s="5"/>
@@ -8066,9 +8527,11 @@
         <v>86280</v>
       </c>
       <c r="G277" s="10">
-        <v>84909</v>
-      </c>
-      <c r="H277" s="10"/>
+        <v>84922</v>
+      </c>
+      <c r="H277" s="10">
+        <v>89793</v>
+      </c>
       <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10"/>
@@ -8096,9 +8559,11 @@
         <v>70691</v>
       </c>
       <c r="G278" s="10">
-        <v>71607</v>
-      </c>
-      <c r="H278" s="10"/>
+        <v>71493</v>
+      </c>
+      <c r="H278" s="10">
+        <v>79670</v>
+      </c>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="10"/>
@@ -8126,9 +8591,11 @@
         <v>15589</v>
       </c>
       <c r="G279" s="10">
-        <v>13302</v>
-      </c>
-      <c r="H279" s="10"/>
+        <v>13429</v>
+      </c>
+      <c r="H279" s="10">
+        <v>10123</v>
+      </c>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10"/>
@@ -8156,9 +8623,11 @@
         <v>18.100000000000001</v>
       </c>
       <c r="G280" s="11">
-        <v>15.7</v>
-      </c>
-      <c r="H280" s="11"/>
+        <v>15.8</v>
+      </c>
+      <c r="H280" s="11">
+        <v>11.3</v>
+      </c>
       <c r="I280" s="11"/>
       <c r="J280" s="11"/>
       <c r="K280" s="11"/>
@@ -8201,7 +8670,9 @@
       <c r="G282" s="5">
         <v>43952</v>
       </c>
-      <c r="H282" s="5"/>
+      <c r="H282" s="5">
+        <v>43983</v>
+      </c>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
       <c r="K282" s="5"/>
@@ -8230,9 +8701,11 @@
         <v>41172</v>
       </c>
       <c r="G283" s="10">
-        <v>40652</v>
-      </c>
-      <c r="H283" s="10"/>
+        <v>40666</v>
+      </c>
+      <c r="H283" s="10">
+        <v>43424</v>
+      </c>
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="10"/>
@@ -8260,9 +8733,11 @@
         <v>34538</v>
       </c>
       <c r="G284" s="10">
-        <v>34986</v>
-      </c>
-      <c r="H284" s="10"/>
+        <v>34929</v>
+      </c>
+      <c r="H284" s="10">
+        <v>38923</v>
+      </c>
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10"/>
@@ -8290,9 +8765,11 @@
         <v>6634</v>
       </c>
       <c r="G285" s="10">
-        <v>5666</v>
-      </c>
-      <c r="H285" s="10"/>
+        <v>5737</v>
+      </c>
+      <c r="H285" s="10">
+        <v>4501</v>
+      </c>
       <c r="I285" s="10"/>
       <c r="J285" s="10"/>
       <c r="K285" s="10"/>
@@ -8320,9 +8797,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G286" s="11">
-        <v>13.9</v>
-      </c>
-      <c r="H286" s="11"/>
+        <v>14.1</v>
+      </c>
+      <c r="H286" s="11">
+        <v>10.4</v>
+      </c>
       <c r="I286" s="11"/>
       <c r="J286" s="11"/>
       <c r="K286" s="11"/>
@@ -8365,7 +8844,9 @@
       <c r="G288" s="5">
         <v>43952</v>
       </c>
-      <c r="H288" s="5"/>
+      <c r="H288" s="5">
+        <v>43983</v>
+      </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
       <c r="K288" s="5"/>
@@ -8394,9 +8875,11 @@
         <v>309856</v>
       </c>
       <c r="G289" s="10">
-        <v>307878</v>
-      </c>
-      <c r="H289" s="10"/>
+        <v>308056</v>
+      </c>
+      <c r="H289" s="10">
+        <v>327326</v>
+      </c>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="10"/>
@@ -8424,9 +8907,11 @@
         <v>251905</v>
       </c>
       <c r="G290" s="10">
-        <v>255173</v>
-      </c>
-      <c r="H290" s="10"/>
+        <v>254763</v>
+      </c>
+      <c r="H290" s="10">
+        <v>283901</v>
+      </c>
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
       <c r="K290" s="10"/>
@@ -8454,9 +8939,11 @@
         <v>57951</v>
       </c>
       <c r="G291" s="10">
-        <v>52705</v>
-      </c>
-      <c r="H291" s="10"/>
+        <v>53293</v>
+      </c>
+      <c r="H291" s="10">
+        <v>43425</v>
+      </c>
       <c r="I291" s="10"/>
       <c r="J291" s="10"/>
       <c r="K291" s="10"/>
@@ -8484,9 +8971,11 @@
         <v>18.7</v>
       </c>
       <c r="G292" s="11">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H292" s="11"/>
+        <v>17.3</v>
+      </c>
+      <c r="H292" s="11">
+        <v>13.3</v>
+      </c>
       <c r="I292" s="11"/>
       <c r="J292" s="11"/>
       <c r="K292" s="11"/>
@@ -8529,7 +9018,9 @@
       <c r="G294" s="5">
         <v>43952</v>
       </c>
-      <c r="H294" s="5"/>
+      <c r="H294" s="5">
+        <v>43983</v>
+      </c>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
       <c r="K294" s="5"/>
@@ -8558,9 +9049,11 @@
         <v>62294</v>
       </c>
       <c r="G295" s="10">
-        <v>61640</v>
-      </c>
-      <c r="H295" s="10"/>
+        <v>61758</v>
+      </c>
+      <c r="H295" s="10">
+        <v>67136</v>
+      </c>
       <c r="I295" s="10"/>
       <c r="J295" s="10"/>
       <c r="K295" s="10"/>
@@ -8588,9 +9081,11 @@
         <v>52409</v>
       </c>
       <c r="G296" s="10">
-        <v>53312</v>
-      </c>
-      <c r="H296" s="10"/>
+        <v>53336</v>
+      </c>
+      <c r="H296" s="10">
+        <v>60613</v>
+      </c>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
       <c r="K296" s="10"/>
@@ -8618,9 +9113,11 @@
         <v>9885</v>
       </c>
       <c r="G297" s="10">
-        <v>8328</v>
-      </c>
-      <c r="H297" s="10"/>
+        <v>8422</v>
+      </c>
+      <c r="H297" s="10">
+        <v>6523</v>
+      </c>
       <c r="I297" s="10"/>
       <c r="J297" s="10"/>
       <c r="K297" s="10"/>
@@ -8648,9 +9145,11 @@
         <v>15.9</v>
       </c>
       <c r="G298" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="H298" s="11"/>
+        <v>13.6</v>
+      </c>
+      <c r="H298" s="11">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="I298" s="11"/>
       <c r="J298" s="11"/>
       <c r="K298" s="11"/>
@@ -8693,7 +9192,9 @@
       <c r="G300" s="5">
         <v>43952</v>
       </c>
-      <c r="H300" s="5"/>
+      <c r="H300" s="5">
+        <v>43983</v>
+      </c>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
       <c r="K300" s="5"/>
@@ -8719,9 +9220,11 @@
         <v>122555</v>
       </c>
       <c r="G301" s="10">
-        <v>122018</v>
-      </c>
-      <c r="H301" s="10"/>
+        <v>122193</v>
+      </c>
+      <c r="H301" s="10">
+        <v>129864</v>
+      </c>
       <c r="I301" s="10"/>
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
@@ -8747,9 +9250,11 @@
         <v>98845</v>
       </c>
       <c r="G302" s="10">
-        <v>100126</v>
-      </c>
-      <c r="H302" s="10"/>
+        <v>99966</v>
+      </c>
+      <c r="H302" s="10">
+        <v>111399</v>
+      </c>
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
@@ -8775,9 +9280,11 @@
         <v>23710</v>
       </c>
       <c r="G303" s="10">
-        <v>21892</v>
-      </c>
-      <c r="H303" s="10"/>
+        <v>22227</v>
+      </c>
+      <c r="H303" s="10">
+        <v>18465</v>
+      </c>
       <c r="I303" s="10"/>
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
@@ -8803,9 +9310,11 @@
         <v>19.3</v>
       </c>
       <c r="G304" s="11">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H304" s="11"/>
+        <v>18.2</v>
+      </c>
+      <c r="H304" s="11">
+        <v>14.2</v>
+      </c>
       <c r="I304" s="11"/>
       <c r="J304" s="11"/>
       <c r="K304" s="11"/>
@@ -8834,7 +9343,9 @@
       <c r="G306" s="5">
         <v>43952</v>
       </c>
-      <c r="H306" s="5"/>
+      <c r="H306" s="5">
+        <v>43983</v>
+      </c>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
       <c r="K306" s="5"/>
@@ -8860,9 +9371,11 @@
         <v>400806</v>
       </c>
       <c r="G307" s="10">
-        <v>396542</v>
-      </c>
-      <c r="H307" s="10"/>
+        <v>396676</v>
+      </c>
+      <c r="H307" s="10">
+        <v>423106</v>
+      </c>
       <c r="I307" s="10"/>
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
@@ -8888,9 +9401,11 @@
         <v>331005</v>
       </c>
       <c r="G308" s="10">
-        <v>335522</v>
-      </c>
-      <c r="H308" s="10"/>
+        <v>335092</v>
+      </c>
+      <c r="H308" s="10">
+        <v>374594</v>
+      </c>
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
@@ -8916,9 +9431,11 @@
         <v>69801</v>
       </c>
       <c r="G309" s="10">
-        <v>61020</v>
-      </c>
-      <c r="H309" s="10"/>
+        <v>61584</v>
+      </c>
+      <c r="H309" s="10">
+        <v>48512</v>
+      </c>
       <c r="I309" s="10"/>
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
@@ -8944,9 +9461,11 @@
         <v>17.399999999999999</v>
       </c>
       <c r="G310" s="11">
-        <v>15.4</v>
-      </c>
-      <c r="H310" s="11"/>
+        <v>15.5</v>
+      </c>
+      <c r="H310" s="11">
+        <v>11.5</v>
+      </c>
       <c r="I310" s="11"/>
       <c r="J310" s="11"/>
       <c r="K310" s="11"/>
@@ -8964,7 +9483,7 @@
     <oddHeader xml:space="preserve">&amp;C&amp;"Futura Bk BT,Regular"&amp;12 RHODE ISLAND
 LOCAL AREA UNEMPLOYMENT STATISTICS 
 Not Seasonally Adjusted 
-2020&amp;R6/2020
+2020&amp;R7/2020
 </oddHeader>
     <oddFooter>&amp;R&amp;"Geometr231 BT,Roman"&amp;P</oddFooter>
   </headerFooter>
